--- a/training/bias_data.xlsx
+++ b/training/bias_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/diesunddas/Uni/6. Semester/BachelorArbeit/implicit-explicit-bias-llms/training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1D5D5-1FD3-EA4A-87E7-055E649C3116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B0A02A-E30A-6749-A9E0-03275A83D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" xr2:uid="{6DF70D7B-B2E2-7142-A006-DB488B5F5E15}"/>
   </bookViews>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>input_text</t>
   </si>
 </sst>
 </file>
@@ -419,22 +419,22 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -442,7 +442,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -466,7 +466,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -474,7 +474,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -490,7 +490,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -498,7 +498,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -522,7 +522,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>1</v>

--- a/training/bias_data.xlsx
+++ b/training/bias_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/diesunddas/Uni/6. Semester/BachelorArbeit/implicit-explicit-bias-llms/training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B0A02A-E30A-6749-A9E0-03275A83D9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30D1056-753C-A84B-84B0-58AB133BA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" xr2:uid="{6DF70D7B-B2E2-7142-A006-DB488B5F5E15}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>input_text</t>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -418,9 +418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2091CE-7D35-584A-8B24-34D5875E4C85}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/training/bias_data.xlsx
+++ b/training/bias_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/diesunddas/Uni/6. Semester/BachelorArbeit/implicit-explicit-bias-llms/training/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2EC09-9821-BF4F-9F3C-AB44EF6F4A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1730688F-985E-D141-A947-64667AA18B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="17160" xr2:uid="{6DF70D7B-B2E2-7142-A006-DB488B5F5E15}"/>
   </bookViews>
@@ -2292,14 +2292,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2634,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2091CE-7D35-584A-8B24-34D5875E4C85}">
-  <dimension ref="A1:F744"/>
+  <dimension ref="A1:G744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2647,7 +2648,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
@@ -2655,7 +2656,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -2665,7 +2666,7 @@
       <c r="F2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -2673,7 +2674,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -2683,7 +2684,7 @@
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -2711,7 +2712,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2753,7 +2754,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E13"/>
     </row>
@@ -2780,7 +2781,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2788,7 +2789,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -3196,7 +3197,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -3444,7 +3445,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -3452,7 +3453,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -3516,7 +3517,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -3532,7 +3533,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -3564,7 +3565,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -3668,7 +3669,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -3860,7 +3861,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -3876,7 +3877,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -3948,7 +3949,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -4316,7 +4317,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,7 +4565,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,7 +4581,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -4596,7 +4597,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -4620,7 +4621,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +4637,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -4676,7 +4677,7 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -4708,7 +4709,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -4828,7 +4829,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5020,7 +5021,7 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -5028,7 +5029,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -5236,7 +5237,7 @@
         <v>323</v>
       </c>
       <c r="B323">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -5316,7 +5317,7 @@
         <v>333</v>
       </c>
       <c r="B333">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -5588,7 +5589,7 @@
         <v>367</v>
       </c>
       <c r="B367">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -5700,7 +5701,7 @@
         <v>381</v>
       </c>
       <c r="B381">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -5764,7 +5765,7 @@
         <v>389</v>
       </c>
       <c r="B389">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -5812,7 +5813,7 @@
         <v>395</v>
       </c>
       <c r="B395">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -5844,7 +5845,7 @@
         <v>399</v>
       </c>
       <c r="B399">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -5860,7 +5861,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -5980,7 +5981,7 @@
         <v>416</v>
       </c>
       <c r="B416">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -6204,7 +6205,7 @@
         <v>444</v>
       </c>
       <c r="B444">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -6220,7 +6221,7 @@
         <v>446</v>
       </c>
       <c r="B446">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -6236,7 +6237,7 @@
         <v>448</v>
       </c>
       <c r="B448">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -6244,7 +6245,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -6524,7 +6525,7 @@
         <v>484</v>
       </c>
       <c r="B484">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -6836,7 +6837,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -6884,7 +6885,7 @@
         <v>529</v>
       </c>
       <c r="B529">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -6948,7 +6949,7 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -7004,7 +7005,7 @@
         <v>544</v>
       </c>
       <c r="B544">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -7084,7 +7085,7 @@
         <v>554</v>
       </c>
       <c r="B554">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -7188,7 +7189,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -7196,7 +7197,7 @@
         <v>568</v>
       </c>
       <c r="B568">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -7268,7 +7269,7 @@
         <v>577</v>
       </c>
       <c r="B577">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -7276,7 +7277,7 @@
         <v>578</v>
       </c>
       <c r="B578">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -7356,7 +7357,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -7516,7 +7517,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -7604,7 +7605,7 @@
         <v>619</v>
       </c>
       <c r="B619">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -7684,7 +7685,7 @@
         <v>629</v>
       </c>
       <c r="B629">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -8084,7 +8085,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -8415,7 +8416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A721" s="3" t="s">
         <v>721</v>
       </c>
@@ -8423,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A722" s="3" t="s">
         <v>722</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A723" s="3" t="s">
         <v>723</v>
       </c>
@@ -8439,7 +8440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A724" s="3" t="s">
         <v>724</v>
       </c>
@@ -8447,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A725" s="3" t="s">
         <v>725</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A726" s="3" t="s">
         <v>726</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A727" s="3" t="s">
         <v>727</v>
       </c>
@@ -8471,7 +8472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A728" s="3" t="s">
         <v>728</v>
       </c>
@@ -8479,71 +8480,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A729" s="3" t="s">
         <v>729</v>
       </c>
       <c r="B729">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E730" s="2"/>
-      <c r="F730" s="2"/>
-    </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E731" s="2"/>
-      <c r="F731" s="2"/>
-    </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E732" s="2"/>
-      <c r="F732" s="2"/>
-    </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E733" s="2"/>
-      <c r="F733" s="2"/>
-    </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E734" s="2"/>
-      <c r="F734" s="2"/>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E735" s="2"/>
-      <c r="F735" s="2"/>
-    </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E736" s="2"/>
-      <c r="F736" s="2"/>
-    </row>
-    <row r="737" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E737" s="2"/>
-      <c r="F737" s="2"/>
-    </row>
-    <row r="738" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E738" s="2"/>
-      <c r="F738" s="2"/>
-    </row>
-    <row r="739" spans="5:6" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D730" s="6"/>
+      <c r="E730" s="7"/>
+      <c r="F730" s="7"/>
+      <c r="G730" s="6"/>
+    </row>
+    <row r="731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D731" s="6"/>
+      <c r="E731" s="7"/>
+      <c r="F731" s="7"/>
+      <c r="G731" s="6"/>
+    </row>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D732" s="6"/>
+      <c r="E732" s="7"/>
+      <c r="F732" s="7"/>
+      <c r="G732" s="6"/>
+    </row>
+    <row r="733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D733" s="6"/>
+      <c r="E733" s="7"/>
+      <c r="F733" s="7"/>
+      <c r="G733" s="6"/>
+    </row>
+    <row r="734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D734" s="6"/>
+      <c r="E734" s="7"/>
+      <c r="F734" s="7"/>
+      <c r="G734" s="6"/>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D735" s="6"/>
+      <c r="E735" s="7"/>
+      <c r="F735" s="7"/>
+      <c r="G735" s="6"/>
+    </row>
+    <row r="736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D736" s="6"/>
+      <c r="E736" s="7"/>
+      <c r="F736" s="7"/>
+      <c r="G736" s="6"/>
+    </row>
+    <row r="737" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D737" s="6"/>
+      <c r="E737" s="7"/>
+      <c r="F737" s="7"/>
+      <c r="G737" s="6"/>
+    </row>
+    <row r="738" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D738" s="6"/>
+      <c r="E738" s="7"/>
+      <c r="F738" s="7"/>
+      <c r="G738" s="6"/>
+    </row>
+    <row r="739" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E739" s="2"/>
       <c r="F739" s="2"/>
     </row>
-    <row r="740" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="740" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E740" s="2"/>
       <c r="F740" s="2"/>
     </row>
-    <row r="741" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="741" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E741" s="2"/>
       <c r="F741" s="2"/>
     </row>
-    <row r="742" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="742" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E742" s="2"/>
       <c r="F742" s="2"/>
     </row>
-    <row r="743" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="743" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E743" s="2"/>
       <c r="F743" s="2"/>
     </row>
-    <row r="744" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="744" spans="4:7" x14ac:dyDescent="0.2">
       <c r="E744" s="2"/>
       <c r="F744" s="2"/>
     </row>
